--- a/x_values_differences.xlsx
+++ b/x_values_differences.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/002e85a9030519cc/Documenten/LR/Courses/Airline_planning/Airline_planning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aadb9d128a4cfa1d/Documenten/python/Airline_planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_21BD53AAD390DC5CD7B82811595ED87656CDF401" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6374304E-19C4-4734-A215-843C5D47F04A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_406D32BFD3C0DD2CAB9A3C11595ED87656CDD735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6413CB0-2CD6-4A8C-90AC-BB7EBA1A2F4A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
   <si>
     <t>p</t>
   </si>
@@ -37,277 +50,220 @@
     <t>0</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
+    <t>89</t>
   </si>
   <si>
     <t>9</t>
@@ -316,7 +272,28 @@
     <t>90</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -335,7 +312,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +356,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,17 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -714,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>24.07</v>
+        <v>67.259999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -742,24 +714,24 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>16.92736842105262</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -770,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>70</v>
@@ -787,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>11.816091954022991</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -843,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>50.62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,360 +823,360 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>81.319999999999993</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>71.880000000000024</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="D24">
-        <v>16.12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D26">
-        <v>150</v>
+        <v>97.97999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>15.64</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>12.23999999999999</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>150</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D33">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>150</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>47.85</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>14.91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>90</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>14.56</v>
@@ -1212,996 +1184,618 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>101.7504</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>150</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>150</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>150</v>
+        <v>16.32</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D41">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>150</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>150</v>
+        <v>33.630000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>17.58727272727273</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C45">
-        <v>39.44</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>33.46032727272727</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>52</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>132.4127272727273</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D49">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D52">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>118.0471</v>
+        <v>64</v>
       </c>
       <c r="D56">
-        <v>111.6955</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D61">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D62">
-        <v>70</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>70</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D64">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>31.9529</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>14.234500000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>63.790000000000013</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>99.95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>99</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>149</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>13</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C73">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>16.739999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D74">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D75">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D76">
-        <v>70</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>70</v>
-      </c>
-      <c r="B78" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>50.62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>50.05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85">
-        <v>96.64</v>
-      </c>
-      <c r="D85">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87">
-        <v>44.08</v>
-      </c>
-      <c r="D87">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" t="s">
-        <v>78</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90">
-        <v>49.623999999999988</v>
-      </c>
-      <c r="D90">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>19.38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>87</v>
-      </c>
-      <c r="B97" t="s">
-        <v>87</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>88</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>91</v>
-      </c>
-      <c r="B101" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>92</v>
-      </c>
-      <c r="B102" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>93</v>
-      </c>
-      <c r="B103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>94</v>
-      </c>
-      <c r="B104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
